--- a/ER.xlsx
+++ b/ER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>dateregister</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>drivertype</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -305,9 +308,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>1114425</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -322,12 +325,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="1714500"/>
-          <a:ext cx="3133725" cy="390525"/>
+          <a:off x="3143250" y="1543050"/>
+          <a:ext cx="1695450" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 152"/>
+            <a:gd name="adj1" fmla="val 79775"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1259,7 +1262,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1299,7 @@
       <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1314,7 +1317,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -1363,8 +1366,8 @@
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1373,6 +1376,9 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>

--- a/ER.xlsx
+++ b/ER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>dateregister</t>
   </si>
@@ -182,6 +182,54 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>idsalesbook</t>
+  </si>
+  <si>
+    <t>Salesbook</t>
+  </si>
+  <si>
+    <t>numbercontrol</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>numbersales</t>
+  </si>
+  <si>
+    <t>amountinvoice</t>
+  </si>
+  <si>
+    <t>amountinvoiceice</t>
+  </si>
+  <si>
+    <t>amountinvoiceexento</t>
+  </si>
+  <si>
+    <t>amountinvoicenet</t>
+  </si>
+  <si>
+    <t>amountoftax</t>
+  </si>
+  <si>
+    <t>Salesdetail</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
   </si>
 </sst>
 </file>
@@ -277,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -289,6 +337,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,15 +357,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -356,15 +406,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -403,15 +453,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -450,15 +500,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -497,15 +547,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -544,15 +594,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -591,15 +641,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -641,61 +691,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="44 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3686175" y="4267200"/>
-          <a:ext cx="762000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -734,15 +737,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -781,15 +784,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -828,15 +831,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -875,15 +878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -922,15 +925,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -967,6 +970,587 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="18 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4724400" y="2286000"/>
+          <a:ext cx="1" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="19 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7143750" y="1685925"/>
+          <a:ext cx="2476500" cy="4029075"/>
+          <a:chOff x="6572250" y="2181225"/>
+          <a:chExt cx="2476500" cy="4048125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="9 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="6210300"/>
+            <a:ext cx="2457450" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="13 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9039225" y="2190750"/>
+            <a:ext cx="9525" cy="4038600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="15 Conector recto de flecha"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8267700" y="2181225"/>
+            <a:ext cx="771526" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="21 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5295900" y="1647825"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="31 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2457450" y="676275"/>
+          <a:ext cx="333375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="50 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1752601" y="1666875"/>
+          <a:ext cx="4848224" cy="238125"/>
+          <a:chOff x="2171701" y="1857375"/>
+          <a:chExt cx="5238749" cy="238125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="30 Conector recto de flecha"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2171701" y="1857375"/>
+            <a:ext cx="5238749" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="48 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7410450" y="1857375"/>
+            <a:ext cx="0" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="52 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2162175" y="3067050"/>
+          <a:ext cx="2000252" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="60 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1438275" y="3810000"/>
+          <a:ext cx="0" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="73 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="5762625"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="78 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1028700" y="371475"/>
+          <a:ext cx="1085850" cy="590550"/>
+          <a:chOff x="1447800" y="561975"/>
+          <a:chExt cx="1476375" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="76" name="75 Conector recto de flecha"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447800" y="571500"/>
+            <a:ext cx="1476375" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="77 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1447800" y="561975"/>
+            <a:ext cx="0" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1259,316 +1843,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>2</v>
+      <c r="L5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="L15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="L18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="L19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="J22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="J23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
+      <c r="H31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ER.xlsx
+++ b/ER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>dateregister</t>
   </si>
@@ -226,10 +226,7 @@
     <t>Ticket</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>destination</t>
+    <t>idcustomer</t>
   </si>
 </sst>
 </file>
@@ -1324,63 +1321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="52 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2162175" y="3067050"/>
-          <a:ext cx="2000252" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1389,8 +1339,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1438275" y="3810000"/>
-          <a:ext cx="0" cy="371475"/>
+          <a:off x="1019175" y="2495550"/>
+          <a:ext cx="28575" cy="1495427"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1468,13 +1418,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1483,8 +1433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1028700" y="371475"/>
-          <a:ext cx="1085850" cy="590550"/>
+          <a:off x="1028700" y="371474"/>
+          <a:ext cx="1085850" cy="923926"/>
           <a:chOff x="1447800" y="561975"/>
           <a:chExt cx="1476375" cy="590550"/>
         </a:xfrm>
@@ -1534,6 +1484,96 @@
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="20 Grupo"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1447800" y="2495550"/>
+          <a:ext cx="1914525" cy="323850"/>
+          <a:chOff x="1447800" y="2495550"/>
+          <a:chExt cx="1914525" cy="323850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="5 Conector recto"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1447800" y="2809875"/>
+            <a:ext cx="1914525" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="7 Conector recto de flecha"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1457325" y="2495550"/>
+            <a:ext cx="9525" cy="323850"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -1846,7 +1886,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,9 +1950,6 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1921,9 +1958,6 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1932,8 +1966,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -1944,7 +1978,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>45</v>
@@ -1952,7 +1986,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>0</v>
@@ -1960,7 +1994,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
@@ -1999,8 +2033,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>71</v>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>50</v>
@@ -2019,9 +2053,6 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2039,9 +2070,6 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2056,9 +2084,6 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2070,9 +2095,6 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
@@ -2084,9 +2106,6 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2101,9 +2120,6 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
